--- a/player_d_dash/defense-dash-2pt_SeasonType_Playoffs_Season_2021-22.xlsx
+++ b/player_d_dash/defense-dash-2pt_SeasonType_Playoffs_Season_2021-22.xlsx
@@ -799,17 +799,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>69.8%</t>
+          <t>69.3%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -819,12 +819,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-12.1</t>
+          <t>-10.7</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1024,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-1.3</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -1169,62 +1169,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>58.5%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>-10.1</t>
         </is>
       </c>
     </row>
@@ -1234,62 +1234,62 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>58.5%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-10.1</t>
+          <t>-11.5</t>
         </is>
       </c>
     </row>
@@ -1349,12 +1349,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -1559,62 +1559,62 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>78.0%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-9.9</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -1624,62 +1624,62 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>62.4%</t>
+          <t>78.0%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>-9.8</t>
         </is>
       </c>
     </row>
@@ -1819,17 +1819,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1839,42 +1839,42 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>70.6%</t>
+          <t>66.8%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-6.5</t>
+          <t>-7.9</t>
         </is>
       </c>
     </row>
@@ -1884,17 +1884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1904,17 +1904,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>66.8%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1924,22 +1924,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-7.8</t>
+          <t>-6.9</t>
         </is>
       </c>
     </row>
@@ -2014,17 +2014,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2034,22 +2034,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>72.0%</t>
+          <t>76.1%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2059,17 +2059,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -2079,17 +2079,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2099,22 +2099,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>52.9%</t>
+          <t>72.0%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2124,17 +2124,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>9.2</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>12.5</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>76.1%</t>
+          <t>52.9%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2254,17 +2254,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>7.8</t>
         </is>
       </c>
     </row>
@@ -2469,42 +2469,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>66.4%</t>
+          <t>61.4%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>-5.5</t>
         </is>
       </c>
     </row>
@@ -2534,37 +2534,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>60.7%</t>
+          <t>66.4%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-4.7</t>
         </is>
       </c>
     </row>
@@ -2649,12 +2649,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-8.7</t>
+          <t>-8.8</t>
         </is>
       </c>
     </row>
@@ -2664,42 +2664,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>61.4%</t>
+          <t>60.7%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>-4.5</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>Herbert Jones</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>64.9%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2839,17 +2839,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>6.8</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Herbert Jones</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>64.9%</t>
+          <t>77.4%</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2904,17 +2904,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -2989,22 +2989,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3019,12 +3019,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>59.6%</t>
+          <t>62.0%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -3054,22 +3054,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3084,12 +3084,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>62.0%</t>
+          <t>59.6%</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3099,17 +3099,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -3249,17 +3249,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>65.5%</t>
+          <t>59.4%</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -3314,17 +3314,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>59.4%</t>
+          <t>65.5%</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3359,17 +3359,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>9.3</t>
         </is>
       </c>
     </row>
@@ -3379,42 +3379,42 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>64.7%</t>
+          <t>64.2%</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-8.2</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -3444,62 +3444,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Mikal Bridges</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>58.7%</t>
+          <t>64.7%</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -3509,57 +3509,57 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>69.8%</t>
+          <t>58.7%</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3574,17 +3574,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3594,42 +3594,42 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>60.1%</t>
+          <t>69.8%</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>-5.1</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -3704,62 +3704,62 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>62.2%</t>
+          <t>60.1%</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>6.7</t>
         </is>
       </c>
     </row>
@@ -3819,12 +3819,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>-7.6</t>
         </is>
       </c>
     </row>
@@ -3834,42 +3834,42 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>58.6%</t>
+          <t>65.7%</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>-7.7</t>
         </is>
       </c>
     </row>
@@ -3899,17 +3899,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3919,42 +3919,42 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>57.5%</t>
+          <t>58.6%</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
           <t>3.5</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>55.2</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>-5.9</t>
         </is>
       </c>
     </row>
@@ -3964,12 +3964,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3984,22 +3984,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>56.7%</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>-5.4</t>
         </is>
       </c>
     </row>
@@ -4029,42 +4029,42 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>65.2%</t>
+          <t>63.1%</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4074,17 +4074,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-8.4</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -4094,42 +4094,42 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>64.0%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>9.3</t>
         </is>
       </c>
     </row>
@@ -4179,17 +4179,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>64.8%</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -4224,27 +4224,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-3.6</t>
         </is>
       </c>
     </row>
@@ -4289,42 +4289,42 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-7.4</t>
+          <t>-7.5</t>
         </is>
       </c>
     </row>
@@ -4809,17 +4809,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4839,12 +4839,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>92.9%</t>
+          <t>86.7%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -4989,12 +4989,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -5004,17 +5004,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>86.7%</t>
+          <t>92.9%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -5069,17 +5069,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5089,42 +5089,42 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>66.0%</t>
+          <t>67.6%</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-7.5</t>
         </is>
       </c>
     </row>
@@ -5134,17 +5134,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5154,22 +5154,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>67.7%</t>
+          <t>66.0%</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>-3.1</t>
         </is>
       </c>
     </row>
@@ -5199,42 +5199,42 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>50.3%</t>
+          <t>64.4%</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>-7.0</t>
         </is>
       </c>
     </row>
@@ -5329,42 +5329,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>64.4%</t>
+          <t>50.3%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-3.6</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5414,22 +5414,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>64.0%</t>
+          <t>57.6%</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-16.4</t>
         </is>
       </c>
     </row>
@@ -5459,22 +5459,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5489,12 +5489,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>55.4%</t>
+          <t>59.6%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-23.1</t>
+          <t>15.5</t>
         </is>
       </c>
     </row>
@@ -5524,22 +5524,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5554,12 +5554,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>59.6%</t>
+          <t>55.4%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>-23.2</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5674,22 +5674,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>56.1%</t>
+          <t>63.9%</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5699,17 +5699,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -5719,17 +5719,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5739,22 +5739,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>65.5%</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5764,17 +5764,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5849,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5869,22 +5869,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>65.5%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5894,17 +5894,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -5979,42 +5979,42 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>57.4%</t>
+          <t>65.4%</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6024,17 +6024,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>67.6</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>14.7</t>
         </is>
       </c>
     </row>
@@ -6044,42 +6044,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>57.9%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>67.6</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -6499,12 +6499,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Daniel Theis</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6519,22 +6519,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>75.4%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>-11.6</t>
         </is>
       </c>
     </row>
@@ -6564,12 +6564,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Daniel Theis</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6584,22 +6584,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>75.4%</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-11.6</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -6629,17 +6629,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6649,22 +6649,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>-12.5</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -6694,42 +6694,42 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Greg Monroe</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-30.9</t>
+          <t>-12.4</t>
         </is>
       </c>
     </row>
@@ -6759,42 +6759,42 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>73.5%</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6804,17 +6804,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-14.3</t>
         </is>
       </c>
     </row>
@@ -6824,22 +6824,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Will Barton</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6854,12 +6854,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>73.5%</t>
+          <t>56.8%</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-14.3</t>
+          <t>15.7</t>
         </is>
       </c>
     </row>
@@ -6889,42 +6889,42 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Will Barton</t>
+          <t>Greg Monroe</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>56.8%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>-30.9</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -7149,37 +7149,37 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>47.1%</t>
+          <t>67.9%</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7199,12 +7199,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>-11.8</t>
+          <t>-15.5</t>
         </is>
       </c>
     </row>
@@ -7214,37 +7214,37 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>67.9%</t>
+          <t>47.1%</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7264,12 +7264,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-15.6</t>
+          <t>-11.7</t>
         </is>
       </c>
     </row>
@@ -7279,17 +7279,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7299,22 +7299,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>70.1%</t>
+          <t>74.7%</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7324,17 +7324,17 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -7344,42 +7344,42 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Otto Porter Jr.</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>70.1%</t>
+          <t>71.2%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7389,17 +7389,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -7474,62 +7474,62 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Otto Porter Jr.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>71.2%</t>
+          <t>70.3%</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -7539,17 +7539,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7559,42 +7559,42 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>74.7%</t>
+          <t>71.1%</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>-4.5</t>
         </is>
       </c>
     </row>
@@ -7604,42 +7604,42 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>78.3%</t>
+          <t>61.6%</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>6.7</t>
         </is>
       </c>
     </row>
@@ -7669,42 +7669,42 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Danuel House Jr.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>61.6%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>-5.6</t>
         </is>
       </c>
     </row>
@@ -7734,42 +7734,42 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Danuel House Jr.</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>78.3%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -8059,17 +8059,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>George Hill</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8089,12 +8089,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>56.8%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -8124,17 +8124,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>George Hill</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8169,17 +8169,17 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-7.2</t>
         </is>
       </c>
     </row>
@@ -8189,17 +8189,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -8219,12 +8219,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>56.8%</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-7.2</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -8384,42 +8384,42 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Bismack Biyombo</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>64.0%</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>10.9</t>
         </is>
       </c>
     </row>
@@ -8449,42 +8449,42 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Bismack Biyombo</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>64.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8494,17 +8494,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>13.3</t>
         </is>
       </c>
     </row>
@@ -8644,62 +8644,62 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Andre Iguodala</t>
+          <t>JaVale McGee</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>61.1%</t>
+          <t>58.8%</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -8709,42 +8709,42 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>JaVale McGee</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>58.8%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
@@ -8774,42 +8774,42 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>Danilo Gallinari</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>17.7</t>
         </is>
       </c>
     </row>
@@ -8839,42 +8839,42 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Danilo Gallinari</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>64.3%</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>-5.2</t>
         </is>
       </c>
     </row>
@@ -8904,42 +8904,42 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>64.2%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8949,17 +8949,17 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -8969,62 +8969,62 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>64.2%</t>
+          <t>58.3%</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>12.3</t>
         </is>
       </c>
     </row>
@@ -9099,17 +9099,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -9119,42 +9119,42 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>58.3%</t>
+          <t>44.7%</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>-17.0</t>
         </is>
       </c>
     </row>
@@ -9164,22 +9164,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -9194,12 +9194,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>70.8%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9209,17 +9209,17 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -9259,12 +9259,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>63.0%</t>
+          <t>70.8%</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>15.1</t>
         </is>
       </c>
     </row>
@@ -9294,22 +9294,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Khem Birch</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -9324,12 +9324,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>58.8%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -9359,17 +9359,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -9379,17 +9379,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>74.1%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -9409,12 +9409,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -9424,42 +9424,42 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Khem Birch</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>74.1%</t>
+          <t>58.8%</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9469,17 +9469,17 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -9604,12 +9604,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -9619,22 +9619,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Devonte' Graham</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -9644,17 +9644,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>63.3%</t>
+          <t>65.5%</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9664,17 +9664,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>73.7</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>20.3</t>
         </is>
       </c>
     </row>
@@ -9684,22 +9684,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Devonte' Graham</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -9709,37 +9709,37 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>65.5%</t>
+          <t>63.3%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>52.6</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
           <t>2.3</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>73.7</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>53.4</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>20.3</t>
         </is>
       </c>
     </row>
@@ -9814,42 +9814,42 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Dewayne Dedmon</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9859,17 +9859,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-22.5</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -9879,62 +9879,62 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Dewayne Dedmon</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-16.8</t>
         </is>
       </c>
     </row>
@@ -9944,17 +9944,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Frank Ntilikina</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -9964,22 +9964,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>67.5%</t>
+          <t>68.2%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9989,17 +9989,17 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -10009,42 +10009,42 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>Frank Ntilikina</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>67.5%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>-16.8</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -10139,17 +10139,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Elfrid Payton</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -10159,22 +10159,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>61.8%</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>-11.2</t>
         </is>
       </c>
     </row>
@@ -10204,17 +10204,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>Elfrid Payton</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -10224,22 +10224,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>68.2%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>13.9</t>
         </is>
       </c>
     </row>
@@ -10269,17 +10269,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -10289,42 +10289,42 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>61.8%</t>
+          <t>68.0%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-11.2</t>
+          <t>8.9</t>
         </is>
       </c>
     </row>
@@ -10334,62 +10334,62 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>57.4%</t>
+          <t>48.3%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>23.8</t>
         </is>
       </c>
     </row>
@@ -10399,37 +10399,37 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>68.0%</t>
+          <t>55.4%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
@@ -10464,42 +10464,42 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>56.9%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>-7.5</t>
         </is>
       </c>
     </row>
@@ -10529,42 +10529,42 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Andre Iguodala</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>55.4%</t>
+          <t>57.9%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -10644,12 +10644,12 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>36.6</t>
         </is>
       </c>
     </row>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -11114,62 +11114,62 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>-7.3</t>
         </is>
       </c>
     </row>
@@ -11179,42 +11179,42 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>56.5%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>26.6</t>
         </is>
       </c>
     </row>
@@ -11244,62 +11244,62 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Omer Yurtseven</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>56.5%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>6.2</t>
         </is>
       </c>
     </row>
@@ -11309,42 +11309,42 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Omer Yurtseven</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>49.2%</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11354,17 +11354,17 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -11374,42 +11374,42 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>58.1%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -11439,12 +11439,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -11454,27 +11454,27 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11484,17 +11484,17 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>13.1</t>
         </is>
       </c>
     </row>
@@ -11504,42 +11504,42 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Willy Hernangomez</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>52.5</t>
         </is>
       </c>
     </row>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>40.5</t>
         </is>
       </c>
     </row>
@@ -11699,42 +11699,42 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Charles Bassey</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>29.0</t>
         </is>
       </c>
     </row>
@@ -11764,42 +11764,42 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Charles Bassey</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -11829,62 +11829,62 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Willy Hernangomez</t>
+          <t>Josh Green</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -11894,17 +11894,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Josh Green</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -11914,42 +11914,42 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>14.2</t>
         </is>
       </c>
     </row>
@@ -12089,42 +12089,42 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>Marquese Chriss</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12134,17 +12134,17 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-19.8</t>
+          <t>-2.8</t>
         </is>
       </c>
     </row>
@@ -12154,42 +12154,42 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Marquese Chriss</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12199,17 +12199,17 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-19.8</t>
         </is>
       </c>
     </row>
@@ -12219,22 +12219,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Trey Burke</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -12244,12 +12244,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>59.1%</t>
+          <t>56.5%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -12269,12 +12269,12 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-14.3</t>
+          <t>-14.2</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Trey Burke</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -12309,12 +12309,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>56.5%</t>
+          <t>59.1%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -12334,12 +12334,12 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-14.2</t>
+          <t>-14.3</t>
         </is>
       </c>
     </row>
@@ -12399,12 +12399,12 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-15.6</t>
+          <t>-15.5</t>
         </is>
       </c>
     </row>
@@ -12544,32 +12544,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>59.4</t>
         </is>
       </c>
     </row>
@@ -12609,37 +12609,37 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Gorgui Dieng</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -12659,12 +12659,12 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>46.3</t>
         </is>
       </c>
     </row>
@@ -12674,17 +12674,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Josh Okogie</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -12694,22 +12694,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>-44.2</t>
         </is>
       </c>
     </row>
@@ -12739,17 +12739,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Josh Okogie</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -12759,22 +12759,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12784,17 +12784,17 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-44.2</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -12804,37 +12804,37 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Gorgui Dieng</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -12854,12 +12854,12 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>48.3</t>
         </is>
       </c>
     </row>
@@ -12869,22 +12869,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Armoni Brooks</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -12894,12 +12894,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -12919,12 +12919,12 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-10.5</t>
+          <t>-11.0</t>
         </is>
       </c>
     </row>
@@ -12934,37 +12934,37 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Eric Paschall</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -12984,12 +12984,12 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -12999,22 +12999,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Eric Paschall</t>
+          <t>Armoni Brooks</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13024,12 +13024,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -13049,12 +13049,12 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-10.5</t>
         </is>
       </c>
     </row>
@@ -13064,62 +13064,62 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Boban Marjanovic</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>-10.4</t>
         </is>
       </c>
     </row>
@@ -13129,12 +13129,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Jaylen Nowell</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -13144,27 +13144,27 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13174,17 +13174,17 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>-43.8</t>
         </is>
       </c>
     </row>
@@ -13194,12 +13194,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jaylen Nowell</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -13209,27 +13209,27 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-43.8</t>
+          <t>12.7</t>
         </is>
       </c>
     </row>
@@ -13259,42 +13259,42 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Boban Marjanovic</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -13304,17 +13304,17 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>-10.4</t>
+          <t>52.3</t>
         </is>
       </c>
     </row>
@@ -13324,62 +13324,62 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -13389,22 +13389,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Ish Wainright</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -13419,12 +13419,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13434,17 +13434,17 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>-30.9</t>
         </is>
       </c>
     </row>
@@ -13454,22 +13454,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ish Wainright</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -13484,12 +13484,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -13499,17 +13499,17 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-30.9</t>
+          <t>-3.9</t>
         </is>
       </c>
     </row>
@@ -13699,12 +13699,12 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.0</t>
         </is>
       </c>
     </row>
@@ -13844,22 +13844,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Luca Vildoza</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -13874,12 +13874,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -13889,17 +13889,17 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>-16.7</t>
+          <t>46.3</t>
         </is>
       </c>
     </row>
@@ -13909,22 +13909,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Kevin Knox II</t>
+          <t>Luca Vildoza</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -13944,27 +13944,27 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>-16.7</t>
         </is>
       </c>
     </row>
@@ -13974,62 +13974,62 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Malik Fitts</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>-27.4</t>
         </is>
       </c>
     </row>
@@ -14039,17 +14039,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Malik Fitts</t>
+          <t>Kevin Knox II</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -14059,12 +14059,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -14084,17 +14084,17 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-27.4</t>
+          <t>45.0</t>
         </is>
       </c>
     </row>
@@ -14104,32 +14104,32 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Rayjon Tucker</t>
+          <t>Juwan Morgan</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -14139,27 +14139,27 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -14169,27 +14169,27 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Juwan Morgan</t>
+          <t>Rayjon Tucker</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -14219,12 +14219,12 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>45.5</t>
         </is>
       </c>
     </row>
